--- a/Questions_variables.xlsx
+++ b/Questions_variables.xlsx
@@ -13,7 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="182">
   <si>
     <t>Developer Type (which is used to identify the 'data scientist') </t>
   </si>
@@ -154,9 +154,6 @@
     <t>No</t>
   </si>
   <si>
-    <t>Comment</t>
-  </si>
-  <si>
     <t>Logic combining occupation and Developer Type</t>
   </si>
   <si>
@@ -166,9 +163,6 @@
     <t>Logic to combine to yes or no on all years</t>
   </si>
   <si>
-    <t>[Years IT   Programming Experience], experience_range, [YearsCodedJob], YearsCodingProf,</t>
-  </si>
-  <si>
     <t>Bachelor’s degree (BA, BS, B.Eng., etc.)</t>
   </si>
   <si>
@@ -281,6 +275,306 @@
   </si>
   <si>
     <t>[Changed Jobs in last 12 Months],no field,LastNewJob,LastNewJob</t>
+  </si>
+  <si>
+    <t>no field,important_promotion,AssessJobCompensation,AssessJob5</t>
+  </si>
+  <si>
+    <t>[Training &amp; Education  Boot camp or night school] (more...),education,[FormalEducation],[FormalEducation]</t>
+  </si>
+  <si>
+    <t>[Current Lang...], [tech_do],[HaveWorkedLanguage],[LanguageWorkedWith]</t>
+  </si>
+  <si>
+    <t>,new_job_value,AssessJob</t>
+  </si>
+  <si>
+    <t>Training &amp; Education: BS in CS,education,[MajorUndergrad],UndergradMajor</t>
+  </si>
+  <si>
+    <t>Within Point 6</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Fields</t>
+  </si>
+  <si>
+    <t>[Years IT   Programming Experience],experience_range,YearsProgram,YearsCoding</t>
+  </si>
+  <si>
+    <t>no field, no field, [YearsCodedJob], YearsCodingProf,</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>(No column name)</t>
+  </si>
+  <si>
+    <t>Occupation</t>
+  </si>
+  <si>
+    <t>Hobby</t>
+  </si>
+  <si>
+    <t>Years Coding Start Range</t>
+  </si>
+  <si>
+    <t>Years Coding Start</t>
+  </si>
+  <si>
+    <t>Years IT   Programming Experience</t>
+  </si>
+  <si>
+    <t>Years Coding PRO</t>
+  </si>
+  <si>
+    <t>UnderGradMajor</t>
+  </si>
+  <si>
+    <t>TimeComputer</t>
+  </si>
+  <si>
+    <t>25-29</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Back-end web developer</t>
+  </si>
+  <si>
+    <t>Croatia</t>
+  </si>
+  <si>
+    <t>2 - 5 years</t>
+  </si>
+  <si>
+    <t>Something else</t>
+  </si>
+  <si>
+    <t>Unknown Race</t>
+  </si>
+  <si>
+    <t>Unknown Orientation</t>
+  </si>
+  <si>
+    <t>Unknown Parents Education</t>
+  </si>
+  <si>
+    <t>Unknown WakeTime</t>
+  </si>
+  <si>
+    <t>9-12 Hours</t>
+  </si>
+  <si>
+    <t>Unknown Time Outside</t>
+  </si>
+  <si>
+    <t>Unknown Exercise</t>
+  </si>
+  <si>
+    <t>Unknown AI View</t>
+  </si>
+  <si>
+    <t>Unknown Future AI View</t>
+  </si>
+  <si>
+    <t>Unknown AI Dangerous View</t>
+  </si>
+  <si>
+    <t>Employed full-time</t>
+  </si>
+  <si>
+    <t>Aerospace</t>
+  </si>
+  <si>
+    <t>Unknown Company Size</t>
+  </si>
+  <si>
+    <t>Unknown 5 Years</t>
+  </si>
+  <si>
+    <t>Slightly satisfied</t>
+  </si>
+  <si>
+    <t>Unknown Ethics View</t>
+  </si>
+  <si>
+    <t>Unknown Ethics Report</t>
+  </si>
+  <si>
+    <t>Unknown Ethics Responsible</t>
+  </si>
+  <si>
+    <t>Unknown Ethics Implication</t>
+  </si>
+  <si>
+    <t>I am actively looking for a job</t>
+  </si>
+  <si>
+    <t>Unknown Value Comp</t>
+  </si>
+  <si>
+    <t>Unknown Time Productive View</t>
+  </si>
+  <si>
+    <t>Unknown Checkin Code</t>
+  </si>
+  <si>
+    <t>age_range</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>Years Coding Pro Range</t>
+  </si>
+  <si>
+    <t>Years Coding Pro</t>
+  </si>
+  <si>
+    <t>EducationalAttainment</t>
+  </si>
+  <si>
+    <t>company_size_range</t>
+  </si>
+  <si>
+    <t>CompensationValue</t>
+  </si>
+  <si>
+    <t>&lt; 20</t>
+  </si>
+  <si>
+    <t>Student</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Unknown Wake Time</t>
+  </si>
+  <si>
+    <t>Over 12 hours</t>
+  </si>
+  <si>
+    <t>I'm a student</t>
+  </si>
+  <si>
+    <t>I’m not actively looking, but I am open to new opportunities</t>
+  </si>
+  <si>
+    <t>Unknown Last Job Change</t>
+  </si>
+  <si>
+    <t>Somewhat important</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> In some years it's a categorical scale value (Very Likely) in other years it's just they value "Salary", "Work-life balance"</t>
+  </si>
+  <si>
+    <t>What do you mean by Experience and Belonging?</t>
+  </si>
+  <si>
+    <t>Field Name</t>
+  </si>
+  <si>
+    <t>Years StartCoding</t>
+  </si>
+  <si>
+    <t>Years CodingPro</t>
+  </si>
+  <si>
+    <t>Education Attain</t>
+  </si>
+  <si>
+    <t>Ethnicity</t>
+  </si>
+  <si>
+    <t>SexualOrientation</t>
+  </si>
+  <si>
+    <t>ParentsEducation</t>
+  </si>
+  <si>
+    <t>EmploymentStatus</t>
+  </si>
+  <si>
+    <t>CompanySize</t>
+  </si>
+  <si>
+    <t>No field</t>
+  </si>
+  <si>
+    <t>Dependents</t>
+  </si>
+  <si>
+    <t>AIFuture</t>
+  </si>
+  <si>
+    <t>AIDangerous</t>
+  </si>
+  <si>
+    <t>WakeTime</t>
+  </si>
+  <si>
+    <t>Exercise</t>
+  </si>
+  <si>
+    <t>SpendOutside</t>
+  </si>
+  <si>
+    <t>LanguagesWorkedWith</t>
+  </si>
+  <si>
+    <t>AIConcerns</t>
+  </si>
+  <si>
+    <t>Hope5Years</t>
+  </si>
+  <si>
+    <t>JobSatisfaction</t>
+  </si>
+  <si>
+    <t>EthicsView</t>
+  </si>
+  <si>
+    <t>EthicsReport</t>
+  </si>
+  <si>
+    <t>EthicsResponsible</t>
+  </si>
+  <si>
+    <t>EthicsImplication</t>
+  </si>
+  <si>
+    <t>JobSearch</t>
+  </si>
+  <si>
+    <t>LastJob</t>
+  </si>
+  <si>
+    <t>ValueComp</t>
+  </si>
+  <si>
+    <t>TimeFullyProductive</t>
+  </si>
+  <si>
+    <t>CheckinCode</t>
   </si>
 </sst>
 </file>
@@ -291,7 +585,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -335,32 +629,60 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF222222"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -369,27 +691,57 @@
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -699,10 +1051,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D1" sqref="A1:D1"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -710,584 +1062,813 @@
     <col min="1" max="1" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="72.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="74.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="8.85546875" style="1"/>
-    <col min="7" max="7" width="12.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.85546875" style="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="113.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" style="1"/>
+    <col min="9" max="9" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1" s="15"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D2" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2" s="8"/>
+      <c r="G2" s="16"/>
+      <c r="I2" s="4">
+        <f>COUNTIF(D:D,"YES")</f>
+        <v>36</v>
+      </c>
+      <c r="J2" s="5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="8"/>
+      <c r="G3" s="16"/>
+      <c r="I3" s="6">
+        <f>I2/J2</f>
+        <v>0.94736842105263153</v>
+      </c>
+      <c r="J3" s="5"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="F4" s="8"/>
+      <c r="G4" s="16"/>
+    </row>
+    <row r="5" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="16"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="F6" s="8"/>
+      <c r="G6" s="16"/>
+    </row>
+    <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
+        <v>6</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="16"/>
+    </row>
+    <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="F8" s="8"/>
+      <c r="G8" s="16"/>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="13">
+        <v>8</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="F9" s="8"/>
+      <c r="G9" s="16"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <v>9</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="F10" s="8"/>
+      <c r="G10" s="16"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <v>10</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="F11" s="8"/>
+      <c r="G11" s="16"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <v>11</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="F12" s="8"/>
+      <c r="G12" s="16"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
+        <v>12</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="F13" s="8"/>
+      <c r="G13" s="16"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
+        <v>13</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="8"/>
+      <c r="G14" s="16"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
+        <v>14</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="10"/>
+      <c r="D15" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="G15" s="16"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="8">
+        <v>15</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="F16" s="8"/>
+      <c r="G16" s="16"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="8">
+        <v>16</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="F17" s="8"/>
+      <c r="G17" s="16"/>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="8">
+        <v>17</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="F18" s="8"/>
+      <c r="G18" s="16"/>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="8">
+        <v>18</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="F19" s="8"/>
+      <c r="G19" s="16"/>
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="8">
+        <v>19</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="F20" s="8"/>
+      <c r="G20" s="16"/>
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="8">
+        <v>20</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="F21" s="8"/>
+      <c r="G21" s="16"/>
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="8">
+        <v>21</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="F22" s="8"/>
+      <c r="G22" s="16"/>
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="8">
+        <v>22</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="F23" s="8"/>
+      <c r="G23" s="16"/>
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="8">
+        <v>23</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="F24" s="8"/>
+      <c r="G24" s="16"/>
+      <c r="J24" s="1"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="8">
+        <v>24</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="F25" s="8"/>
+      <c r="G25" s="16"/>
+      <c r="J25" s="1"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="8">
+        <v>25</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F26" s="8"/>
+      <c r="G26" s="16"/>
+      <c r="J26" s="1"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="8">
+        <v>26</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="F27" s="8"/>
+      <c r="G27" s="16"/>
+      <c r="J27" s="1"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="8">
+        <v>27</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="F28" s="8"/>
+      <c r="G28" s="16"/>
+      <c r="J28" s="1"/>
+    </row>
+    <row r="29" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="8">
+        <v>28</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="10" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F2" s="1">
-        <f>COUNTIF(D:D,"YES")</f>
+      <c r="D29" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="F29" s="8"/>
+      <c r="G29" s="16"/>
+      <c r="J29" s="1"/>
+    </row>
+    <row r="30" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="8">
+        <v>29</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="F30" s="8"/>
+      <c r="G30" s="16"/>
+      <c r="J30" s="1"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="8">
         <v>30</v>
       </c>
-      <c r="G2" s="5">
+      <c r="B31" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="F31" s="8"/>
+      <c r="G31" s="16"/>
+      <c r="J31" s="1"/>
+    </row>
+    <row r="32" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="8">
+        <v>31</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="F32" s="8"/>
+      <c r="G32" s="16"/>
+      <c r="J32" s="1"/>
+    </row>
+    <row r="33" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="8">
+        <v>32</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="F33" s="8"/>
+      <c r="G33" s="16"/>
+      <c r="J33" s="1"/>
+    </row>
+    <row r="34" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="8">
+        <v>33</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="F34" s="8"/>
+      <c r="G34" s="16"/>
+      <c r="J34" s="1"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="8">
+        <v>34</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="F35" s="8"/>
+      <c r="G35" s="16"/>
+      <c r="J35" s="1"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="8">
+        <v>35</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="G36" s="16"/>
+      <c r="J36" s="1"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="8">
+        <v>36</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="F37" s="8"/>
+      <c r="G37" s="16"/>
+      <c r="J37" s="1"/>
+    </row>
+    <row r="38" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="8">
+        <v>37</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="F38" s="8"/>
+      <c r="G38" s="16"/>
+      <c r="J38" s="1"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="8">
         <v>38</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3" s="7">
-        <f>F2/G2</f>
-        <v>0.78947368421052633</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>11</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>12</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>13</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>14</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="2"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>15</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>16</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <v>17</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
-        <v>18</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
-        <v>19</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
-        <v>20</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="2"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
-        <v>21</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
-        <v>22</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
-        <v>23</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
-        <v>24</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
-        <v>25</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
-        <v>26</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
-        <v>27</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
-        <v>28</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
-        <v>29</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
-        <v>30</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
-        <v>31</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C32" s="4" t="s">
+      <c r="B39" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C39" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D32" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
-        <v>32</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="2">
-        <v>33</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="2">
-        <v>34</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="2">
-        <v>35</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C36" s="4"/>
-      <c r="D36" s="2"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="2">
-        <v>36</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C37" s="4"/>
-      <c r="D37" s="2"/>
-    </row>
-    <row r="38" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="2">
-        <v>37</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="2">
-        <v>38</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>39</v>
-      </c>
+      <c r="D39" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="F39" s="8"/>
+      <c r="G39" s="16"/>
+      <c r="J39" s="1"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D3">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
+  <conditionalFormatting sqref="A40:E1048576 A2:D39">
+    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
+      <formula>AND($D2 = "No",$B2&lt;&gt;"")</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:D1048576">
-    <cfRule type="dataBar" priority="1">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{B844F40A-5FA8-4CB1-AFF1-528FD424EC61}</x14:id>
-        </ext>
-      </extLst>
+    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+      <formula>AND($D2 = "",$B2&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
-      <x14:conditionalFormattings>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{B844F40A-5FA8-4CB1-AFF1-528FD424EC61}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF638EC6"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>B1:D1048576</xm:sqref>
-        </x14:conditionalFormatting>
-      </x14:conditionalFormattings>
-    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
@@ -1304,28 +1885,487 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:AK4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="H1" sqref="H1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="49.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="49.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="41.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="26" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="55.42578125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="30" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="22.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="6"/>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K1" t="s">
+        <v>101</v>
+      </c>
+      <c r="L1" t="s">
+        <v>95</v>
+      </c>
+      <c r="M1" t="s">
+        <v>102</v>
+      </c>
+      <c r="N1" t="s">
+        <v>95</v>
+      </c>
+      <c r="O1" t="s">
+        <v>95</v>
+      </c>
+      <c r="P1" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>95</v>
+      </c>
+      <c r="R1" t="s">
+        <v>103</v>
+      </c>
+      <c r="S1" t="s">
+        <v>95</v>
+      </c>
+      <c r="T1" t="s">
+        <v>95</v>
+      </c>
+      <c r="U1" t="s">
+        <v>95</v>
+      </c>
+      <c r="V1" t="s">
+        <v>95</v>
+      </c>
+      <c r="W1" t="s">
+        <v>95</v>
+      </c>
+      <c r="X1" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D2">
+        <v>2015</v>
+      </c>
+      <c r="E2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I2">
+        <v>3.5</v>
+      </c>
+      <c r="J2" t="s">
+        <v>108</v>
+      </c>
+      <c r="K2">
+        <v>3.5</v>
+      </c>
+      <c r="L2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M2" t="s">
+        <v>109</v>
+      </c>
+      <c r="N2" t="s">
+        <v>110</v>
+      </c>
+      <c r="O2" t="s">
+        <v>111</v>
+      </c>
+      <c r="P2" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>113</v>
+      </c>
+      <c r="R2" t="s">
+        <v>114</v>
+      </c>
+      <c r="S2" t="s">
+        <v>115</v>
+      </c>
+      <c r="T2" t="s">
+        <v>116</v>
+      </c>
+      <c r="U2" t="s">
+        <v>117</v>
+      </c>
+      <c r="V2" t="s">
+        <v>118</v>
+      </c>
+      <c r="W2" t="s">
+        <v>119</v>
+      </c>
+      <c r="X2" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>121</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>123</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>124</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>125</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>127</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>128</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>129</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>130</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>131</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F3" t="s">
+        <v>135</v>
+      </c>
+      <c r="G3" t="s">
+        <v>97</v>
+      </c>
+      <c r="H3" t="s">
+        <v>98</v>
+      </c>
+      <c r="I3" t="s">
+        <v>99</v>
+      </c>
+      <c r="J3" t="s">
+        <v>136</v>
+      </c>
+      <c r="K3" t="s">
+        <v>137</v>
+      </c>
+      <c r="L3" t="s">
+        <v>138</v>
+      </c>
+      <c r="M3" t="s">
+        <v>102</v>
+      </c>
+      <c r="N3" t="s">
+        <v>95</v>
+      </c>
+      <c r="O3" t="s">
+        <v>95</v>
+      </c>
+      <c r="P3" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>95</v>
+      </c>
+      <c r="R3" t="s">
+        <v>103</v>
+      </c>
+      <c r="S3" t="s">
+        <v>95</v>
+      </c>
+      <c r="T3" t="s">
+        <v>95</v>
+      </c>
+      <c r="U3" t="s">
+        <v>95</v>
+      </c>
+      <c r="V3" t="s">
+        <v>95</v>
+      </c>
+      <c r="W3" t="s">
+        <v>95</v>
+      </c>
+      <c r="X3" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>95</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>95</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>95</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>95</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>95</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>140</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B4">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D4">
+        <v>2016</v>
+      </c>
+      <c r="E4" t="s">
+        <v>142</v>
+      </c>
+      <c r="F4" t="s">
+        <v>143</v>
+      </c>
+      <c r="G4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L4" t="s">
+        <v>144</v>
+      </c>
+      <c r="M4" t="s">
+        <v>109</v>
+      </c>
+      <c r="N4" t="s">
+        <v>110</v>
+      </c>
+      <c r="O4" t="s">
+        <v>111</v>
+      </c>
+      <c r="P4" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>145</v>
+      </c>
+      <c r="R4" t="s">
+        <v>146</v>
+      </c>
+      <c r="S4" t="s">
+        <v>115</v>
+      </c>
+      <c r="T4" t="s">
+        <v>116</v>
+      </c>
+      <c r="U4" t="s">
+        <v>117</v>
+      </c>
+      <c r="V4" t="s">
+        <v>118</v>
+      </c>
+      <c r="W4" t="s">
+        <v>119</v>
+      </c>
+      <c r="X4" t="s">
+        <v>147</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>123</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>125</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>126</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>127</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>128</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>148</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>149</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>150</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>131</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>132</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1334,7 +2374,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1347,7 +2387,7 @@
         <v>39</v>
       </c>
       <c r="D1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1355,47 +2395,47 @@
         <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
